--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value427.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value427.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9093001056746531</v>
+        <v>1.144984483718872</v>
       </c>
       <c r="B1">
-        <v>1.356109614854582</v>
+        <v>2.353566884994507</v>
       </c>
       <c r="C1">
-        <v>2.263480941084465</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.515306796567839</v>
+        <v>1.801346778869629</v>
       </c>
       <c r="E1">
-        <v>1.934884898713787</v>
+        <v>1.208109259605408</v>
       </c>
     </row>
   </sheetData>
